--- a/테이블명세서.xlsx
+++ b/테이블명세서.xlsx
@@ -207,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,20 +215,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +624,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,207 +636,207 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>50</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
